--- a/fhir/StructureDefinition-ehealth-patient.xlsx
+++ b/fhir/StructureDefinition-ehealth-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:09:52+00:00</t>
+    <t>2024-09-02T14:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-patient.xlsx
+++ b/fhir/StructureDefinition-ehealth-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:04:41+00:00</t>
+    <t>2025-02-17T14:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-patient.xlsx
+++ b/fhir/StructureDefinition-ehealth-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T14:41:06+00:00</t>
+    <t>2025-03-06T12:26:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-patient.xlsx
+++ b/fhir/StructureDefinition-ehealth-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5185" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5185" uniqueCount="742">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T12:26:33+00:00</t>
+    <t>2025-04-23T06:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2115,7 +2115,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner) &lt;&lt;referenced&gt;&gt;
+    <t xml:space="preserve">Reference(Organization) &lt;&lt;referenced&gt;&gt;
 </t>
   </si>
   <si>
@@ -2144,10 +2144,6 @@
   </si>
   <si>
     <t>referencedSORUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner)
-</t>
   </si>
   <si>
     <t>Patient.generalPractitioner:referencedSORUnit.id</t>
@@ -2649,17 +2645,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.85546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.62890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.54296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.03125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.40625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.0546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2668,27 +2664,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="80.89453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="23.2734375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.35546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6110,7 +6106,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -7048,7 +7044,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -17229,7 +17225,7 @@
         <v>77</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>79</v>
@@ -17346,7 +17342,7 @@
         <v>77</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>79</v>
@@ -17358,7 +17354,7 @@
         <v>79</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>686</v>
+        <v>579</v>
       </c>
       <c r="L126" t="s" s="2">
         <v>678</v>
@@ -17449,10 +17445,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B127" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17564,10 +17560,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="B128" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>690</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17681,10 +17677,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="B129" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17710,13 +17706,13 @@
         <v>207</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>693</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>694</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>695</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
@@ -17766,7 +17762,7 @@
         <v>79</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>77</v>
@@ -17775,7 +17771,7 @@
         <v>87</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>99</v>
@@ -17798,10 +17794,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="B130" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17827,13 +17823,13 @@
         <v>101</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
@@ -17862,28 +17858,28 @@
         <v>495</v>
       </c>
       <c r="Y130" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="Z130" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="Z130" t="s" s="2">
+      <c r="AA130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF130" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>77</v>
@@ -17915,10 +17911,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="B131" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17941,7 +17937,7 @@
         <v>79</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L131" t="s" s="2">
         <v>179</v>
@@ -17950,7 +17946,7 @@
         <v>180</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
@@ -18000,7 +17996,7 @@
         <v>79</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>77</v>
@@ -18032,10 +18028,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="B132" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18061,13 +18057,13 @@
         <v>207</v>
       </c>
       <c r="L132" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="M132" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="M132" t="s" s="2">
+      <c r="N132" t="s" s="2">
         <v>714</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>715</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
@@ -18117,7 +18113,7 @@
         <v>79</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>77</v>
@@ -18149,10 +18145,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18178,16 +18174,16 @@
         <v>579</v>
       </c>
       <c r="L133" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>718</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="N133" t="s" s="2">
+      <c r="O133" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>721</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>79</v>
@@ -18236,7 +18232,7 @@
         <v>79</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>77</v>
@@ -18254,7 +18250,7 @@
         <v>584</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>79</v>
@@ -18268,10 +18264,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18297,16 +18293,16 @@
         <v>517</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>725</v>
       </c>
-      <c r="N134" t="s" s="2">
+      <c r="O134" t="s" s="2">
         <v>726</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>727</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>79</v>
@@ -18355,7 +18351,7 @@
         <v>79</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>77</v>
@@ -18370,7 +18366,7 @@
         <v>99</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>191</v>
@@ -18387,10 +18383,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18502,10 +18498,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18619,10 +18615,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18738,10 +18734,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18764,16 +18760,16 @@
         <v>88</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="L138" t="s" s="2">
         <v>733</v>
       </c>
-      <c r="L138" t="s" s="2">
+      <c r="M138" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="N138" t="s" s="2">
         <v>735</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>736</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
@@ -18823,7 +18819,7 @@
         <v>79</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>87</v>
@@ -18847,7 +18843,7 @@
         <v>79</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>79</v>
@@ -18855,10 +18851,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18884,10 +18880,10 @@
         <v>107</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="M139" t="s" s="2">
         <v>739</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>740</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -18917,11 +18913,11 @@
         <v>223</v>
       </c>
       <c r="Y139" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="Z139" t="s" s="2">
         <v>740</v>
       </c>
-      <c r="Z139" t="s" s="2">
-        <v>741</v>
-      </c>
       <c r="AA139" t="s" s="2">
         <v>79</v>
       </c>
@@ -18938,7 +18934,7 @@
         <v>79</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>87</v>
@@ -18953,7 +18949,7 @@
         <v>99</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AL139" t="s" s="2">
         <v>191</v>

--- a/fhir/StructureDefinition-ehealth-patient.xlsx
+++ b/fhir/StructureDefinition-ehealth-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-23T06:28:42+00:00</t>
+    <t>2025-04-29T12:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-patient.xlsx
+++ b/fhir/StructureDefinition-ehealth-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:22:27+00:00</t>
+    <t>2025-08-08T06:54:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-patient.xlsx
+++ b/fhir/StructureDefinition-ehealth-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T11:48:43+00:00</t>
+    <t>2025-08-12T13:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-patient.xlsx
+++ b/fhir/StructureDefinition-ehealth-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5741" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5741" uniqueCount="815">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T13:00:26+00:00</t>
+    <t>2025-10-23T10:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2264,6 +2264,9 @@
     <t>Patient.generalPractitioner:YderNummer.type</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
     <t>Patient.generalPractitioner:YderNummer.identifier</t>
   </si>
   <si>
@@ -2339,7 +2342,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -2433,6 +2436,10 @@
   </si>
   <si>
     <t>Patient.generalPractitioner.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
   </si>
   <si>
     <t>Organization that issued id (may be just text)</t>
@@ -18894,7 +18901,7 @@
         <v>702</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>703</v>
+        <v>723</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>79</v>
@@ -18944,7 +18951,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>706</v>
@@ -18973,10 +18980,10 @@
         <v>167</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="N138" t="s" s="2">
         <v>708</v>
@@ -19044,7 +19051,7 @@
         <v>99</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>79</v>
@@ -19061,10 +19068,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19176,10 +19183,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19293,10 +19300,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19322,16 +19329,16 @@
         <v>107</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>79</v>
@@ -19359,10 +19366,10 @@
         <v>223</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>79</v>
@@ -19380,7 +19387,7 @@
         <v>79</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>77</v>
@@ -19395,7 +19402,7 @@
         <v>99</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>79</v>
@@ -19412,10 +19419,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19441,16 +19448,16 @@
         <v>491</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>79</v>
@@ -19478,10 +19485,10 @@
         <v>495</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>79</v>
@@ -19499,7 +19506,7 @@
         <v>79</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>77</v>
@@ -19514,7 +19521,7 @@
         <v>99</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>79</v>
@@ -19523,7 +19530,7 @@
         <v>79</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>79</v>
@@ -19531,10 +19538,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19560,16 +19567,16 @@
         <v>101</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>79</v>
@@ -19579,10 +19586,10 @@
         <v>79</v>
       </c>
       <c r="S143" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="T143" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="U143" t="s" s="2">
         <v>79</v>
@@ -19618,7 +19625,7 @@
         <v>79</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>77</v>
@@ -19633,7 +19640,7 @@
         <v>99</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>79</v>
@@ -19642,7 +19649,7 @@
         <v>79</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>79</v>
@@ -19650,10 +19657,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19679,13 +19686,13 @@
         <v>207</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -19699,7 +19706,7 @@
         <v>79</v>
       </c>
       <c r="T144" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="U144" t="s" s="2">
         <v>79</v>
@@ -19735,7 +19742,7 @@
         <v>79</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>77</v>
@@ -19750,7 +19757,7 @@
         <v>99</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>79</v>
@@ -19759,7 +19766,7 @@
         <v>79</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>79</v>
@@ -19767,10 +19774,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19796,10 +19803,10 @@
         <v>272</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -19850,7 +19857,7 @@
         <v>79</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>77</v>
@@ -19865,7 +19872,7 @@
         <v>99</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>79</v>
@@ -19874,7 +19881,7 @@
         <v>79</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>79</v>
@@ -19882,10 +19889,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19908,16 +19915,16 @@
         <v>88</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>579</v>
+        <v>781</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -19967,7 +19974,7 @@
         <v>79</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>77</v>
@@ -19982,7 +19989,7 @@
         <v>99</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>79</v>
@@ -19991,7 +19998,7 @@
         <v>79</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>79</v>
@@ -19999,7 +20006,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>711</v>
@@ -20116,10 +20123,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20145,16 +20152,16 @@
         <v>579</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>79</v>
@@ -20203,7 +20210,7 @@
         <v>79</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>77</v>
@@ -20221,7 +20228,7 @@
         <v>584</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>79</v>
@@ -20235,10 +20242,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20264,16 +20271,16 @@
         <v>517</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>79</v>
@@ -20322,7 +20329,7 @@
         <v>79</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>77</v>
@@ -20337,7 +20344,7 @@
         <v>99</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>191</v>
@@ -20354,10 +20361,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20469,10 +20476,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20586,10 +20593,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20705,10 +20712,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20731,16 +20738,16 @@
         <v>88</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -20790,7 +20797,7 @@
         <v>79</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>87</v>
@@ -20814,7 +20821,7 @@
         <v>79</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>79</v>
@@ -20822,10 +20829,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20851,10 +20858,10 @@
         <v>107</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -20884,28 +20891,28 @@
         <v>223</v>
       </c>
       <c r="Y154" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF154" t="s" s="2">
         <v>810</v>
-      </c>
-      <c r="Z154" t="s" s="2">
-        <v>811</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF154" t="s" s="2">
-        <v>808</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>87</v>
@@ -20920,7 +20927,7 @@
         <v>99</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>191</v>
@@ -20937,12 +20944,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO154">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
